--- a/entry_survey_cleaned.xlsx
+++ b/entry_survey_cleaned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phamn\Documents\Project\Rebound Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F949A0-8ECA-409C-AE17-AD9036698AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4919DDB1-DF50-426B-A8F4-83E4385C4B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{1F6D650E-BEAC-4ADD-981F-43E816AAB90C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{1F6D650E-BEAC-4ADD-981F-43E816AAB90C}"/>
   </bookViews>
   <sheets>
     <sheet name="Expectation Theme" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="196">
   <si>
     <t>Recorded Date</t>
   </si>
@@ -111,9 +111,6 @@
     <t>I missed the first 3 weeks of class because I have been unwell, and missed out on a lot of content. I was having trouble studying alone so I was looking forward to learning in person. I also live on the central coast and travel is a bit difficult at times.</t>
   </si>
   <si>
-    <t>Catch up</t>
-  </si>
-  <si>
     <t>I understand a bit better about the content</t>
   </si>
   <si>
@@ -512,12 +509,6 @@
     <t>Understand/Clarify Concepts</t>
   </si>
   <si>
-    <t>No Comments</t>
-  </si>
-  <si>
-    <t>Catch Up</t>
-  </si>
-  <si>
     <t>Assessments Help</t>
   </si>
   <si>
@@ -620,6 +611,47 @@
     <t xml:space="preserve">- To have a different perspective on theories and practical information. 
 - To help provide the space to have time to learn the week's theories. 
 - Be able to organise my hectic work/life balance to dedicate time to work on my COMP1350. </t>
+  </si>
+  <si>
+    <t>Unanswered</t>
+  </si>
+  <si>
+    <t>Unaswered</t>
+  </si>
+  <si>
+    <t>Catch Up Content</t>
+  </si>
+  <si>
+    <t>I expected clarification on concepts such as if statements and to Catch Up Content on the content from a class I missed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to go over exercises that i dont understand or get help in understanding future assessments 
+i missed this weeks class as i had unforeseeable work arrangements and so i came to Catch Up Content on the work i missed </t>
+  </si>
+  <si>
+    <t>To Catch Up Content with previous SGTA that i missed out
+To reinforce understanding of concepts- loops and ifs</t>
+  </si>
+  <si>
+    <t>I needed to Catch Up Content</t>
+  </si>
+  <si>
+    <t>To Catch Up Content on missed work, asking questions about quiz and assignment.</t>
+  </si>
+  <si>
+    <t>I missed the first two weeks of classes because of my visa. I wanted to Catch Up Content with my studies.</t>
+  </si>
+  <si>
+    <t>to Catch Up Content with the new materials provided every week</t>
+  </si>
+  <si>
+    <t>Extra Practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I chose to attend these classes to ask some questions regarding the Extra Practice quizzes in preparation for the test next week. </t>
+  </si>
+  <si>
+    <t>To Extra Practice myself and to clear some problems that I faced.</t>
   </si>
 </sst>
 </file>
@@ -1008,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9174D7-FE40-4E64-8EE3-13352E1607F3}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1060,19 +1092,19 @@
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -1111,7 +1143,7 @@
         <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1154,11 +1186,11 @@
         <v>16</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1201,7 +1233,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
@@ -1240,11 +1272,11 @@
         <v>18</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1286,7 +1318,7 @@
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1300,7 +1332,7 @@
         <v>49160044</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1325,11 +1357,11 @@
         <v>3</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1343,7 +1375,7 @@
         <v>48798096</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1368,10 +1400,10 @@
         <v>4</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1386,7 +1418,7 @@
         <v>48799254</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1411,10 +1443,10 @@
         <v>4</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1429,7 +1461,7 @@
         <v>48496839</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1454,13 +1486,13 @@
         <v>4</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1499,14 +1531,14 @@
         <v>3</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -1542,15 +1574,15 @@
         <v>4</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q12" s="1"/>
     </row>
@@ -1587,10 +1619,10 @@
         <v>3</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1630,10 +1662,10 @@
         <v>4</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1673,10 +1705,10 @@
         <v>4</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1691,7 +1723,7 @@
         <v>49027344</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -1716,10 +1748,10 @@
         <v>4</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1734,7 +1766,7 @@
         <v>49041800</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -1759,15 +1791,15 @@
         <v>4</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q17" s="1"/>
     </row>
@@ -1779,7 +1811,7 @@
         <v>47793783</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -1804,10 +1836,10 @@
         <v>3</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -1822,7 +1854,7 @@
         <v>48134155</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -1847,10 +1879,10 @@
         <v>3</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1865,7 +1897,7 @@
         <v>49075594</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -1890,10 +1922,10 @@
         <v>4</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -1908,7 +1940,7 @@
         <v>49225308</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -1938,7 +1970,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -1949,7 +1981,7 @@
         <v>48961116</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -1974,11 +2006,11 @@
         <v>4</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -1992,7 +2024,7 @@
         <v>49170406</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -2017,12 +2049,12 @@
         <v>1</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -2060,10 +2092,10 @@
         <v>4</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2103,14 +2135,14 @@
         <v>3</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -2148,17 +2180,17 @@
         <v>4</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q26" s="1"/>
     </row>
@@ -2170,7 +2202,7 @@
         <v>49076876</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -2195,10 +2227,10 @@
         <v>3</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -2213,7 +2245,7 @@
         <v>47629894</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -2238,13 +2270,13 @@
         <v>2</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q28" s="1"/>
     </row>
@@ -2256,7 +2288,7 @@
         <v>46466673</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -2281,17 +2313,17 @@
         <v>3</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q29" s="1"/>
     </row>
@@ -2303,7 +2335,7 @@
         <v>48887285</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -2328,14 +2360,14 @@
         <v>3</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -2346,7 +2378,7 @@
         <v>49178229</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -2355,28 +2387,28 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>4</v>
+      </c>
+      <c r="J31" s="1">
+        <v>4</v>
+      </c>
+      <c r="K31" s="1">
+        <v>4</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="1">
-        <v>2</v>
-      </c>
-      <c r="H31" s="1">
-        <v>2</v>
-      </c>
-      <c r="I31" s="1">
-        <v>4</v>
-      </c>
-      <c r="J31" s="1">
-        <v>4</v>
-      </c>
-      <c r="K31" s="1">
-        <v>4</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="M31" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -2391,7 +2423,7 @@
         <v>48766976</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -2416,10 +2448,10 @@
         <v>4</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -2434,7 +2466,7 @@
         <v>47486643</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -2459,13 +2491,13 @@
         <v>4</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -2504,10 +2536,10 @@
         <v>3</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -2552,7 +2584,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -2588,14 +2620,14 @@
         <v>4</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -2606,7 +2638,7 @@
         <v>48975680</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -2631,10 +2663,10 @@
         <v>4</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -2649,7 +2681,7 @@
         <v>48510904</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -2674,13 +2706,13 @@
         <v>2</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -2694,7 +2726,7 @@
         <v>49076868</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -2719,10 +2751,10 @@
         <v>4</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -2762,10 +2794,10 @@
         <v>4</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -2780,7 +2812,7 @@
         <v>49065645</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -2805,11 +2837,11 @@
         <v>4</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2823,7 +2855,7 @@
         <v>48894907</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -2848,11 +2880,11 @@
         <v>3</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -2891,13 +2923,13 @@
         <v>3</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q43" s="1"/>
     </row>
@@ -2909,7 +2941,7 @@
         <v>47664762</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -2934,11 +2966,11 @@
         <v>4</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -2952,7 +2984,7 @@
         <v>49151797</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -2977,10 +3009,10 @@
         <v>4</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -2995,7 +3027,7 @@
         <v>47436832</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -3020,11 +3052,11 @@
         <v>4</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -3038,7 +3070,7 @@
         <v>49252690</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -3063,15 +3095,15 @@
         <v>4</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q47" s="1"/>
     </row>
@@ -3113,7 +3145,7 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -3133,30 +3165,30 @@
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2</v>
+      </c>
+      <c r="J49" s="1">
+        <v>2</v>
+      </c>
+      <c r="K49" s="1">
+        <v>2</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="G49" s="1">
-        <v>2</v>
-      </c>
-      <c r="H49" s="1">
-        <v>2</v>
-      </c>
-      <c r="I49" s="1">
-        <v>2</v>
-      </c>
-      <c r="J49" s="1">
-        <v>2</v>
-      </c>
-      <c r="K49" s="1">
-        <v>2</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -3194,17 +3226,17 @@
         <v>4</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q50" s="1"/>
     </row>
@@ -3225,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G51" s="1">
         <v>2</v>
@@ -3248,7 +3280,7 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
@@ -3284,12 +3316,12 @@
         <v>3</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -3302,7 +3334,7 @@
         <v>48665541</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -3327,14 +3359,14 @@
         <v>4</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.35">
@@ -3370,10 +3402,10 @@
         <v>3</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -3397,28 +3429,28 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G55" s="1">
+        <v>2</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2</v>
+      </c>
+      <c r="I55" s="1">
+        <v>4</v>
+      </c>
+      <c r="J55" s="1">
+        <v>4</v>
+      </c>
+      <c r="K55" s="1">
+        <v>3</v>
+      </c>
+      <c r="L55" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G55" s="1">
-        <v>2</v>
-      </c>
-      <c r="H55" s="1">
-        <v>2</v>
-      </c>
-      <c r="I55" s="1">
-        <v>4</v>
-      </c>
-      <c r="J55" s="1">
-        <v>4</v>
-      </c>
-      <c r="K55" s="1">
-        <v>3</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="M55" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -3433,7 +3465,7 @@
         <v>49004999</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -3458,10 +3490,10 @@
         <v>4</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -3476,7 +3508,7 @@
         <v>60946520</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -3501,10 +3533,10 @@
         <v>3</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -3544,10 +3576,10 @@
         <v>4</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -3562,7 +3594,7 @@
         <v>46270132</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -3587,11 +3619,11 @@
         <v>4</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
@@ -3635,7 +3667,7 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
@@ -3671,10 +3703,10 @@
         <v>3</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -3689,7 +3721,7 @@
         <v>49215493</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
@@ -3714,10 +3746,10 @@
         <v>4</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -3732,7 +3764,7 @@
         <v>60884495</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -3757,11 +3789,11 @@
         <v>3</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
@@ -3775,7 +3807,7 @@
         <v>60764953</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -3800,13 +3832,13 @@
         <v>2</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q64" s="1"/>
     </row>
@@ -3818,7 +3850,7 @@
         <v>60775645</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
@@ -3848,7 +3880,7 @@
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.35">
@@ -3859,7 +3891,7 @@
         <v>12345678</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -3868,32 +3900,32 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="G66" s="1">
-        <v>1</v>
-      </c>
-      <c r="H66" s="1">
-        <v>1</v>
-      </c>
-      <c r="I66" s="1">
-        <v>1</v>
-      </c>
-      <c r="J66" s="1">
-        <v>1</v>
-      </c>
-      <c r="K66" s="1">
-        <v>1</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.35">
@@ -3904,7 +3936,7 @@
         <v>49247883</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
@@ -3929,10 +3961,10 @@
         <v>3</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -3947,7 +3979,7 @@
         <v>49247875</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
@@ -3972,10 +4004,10 @@
         <v>2</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -3990,7 +4022,7 @@
         <v>49139819</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
@@ -4015,14 +4047,14 @@
         <v>2</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -4035,7 +4067,7 @@
         <v>48170771</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
@@ -4060,10 +4092,10 @@
         <v>3</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -4078,7 +4110,7 @@
         <v>47502185</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
@@ -4087,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G71" s="1">
         <v>2</v>
@@ -4105,10 +4137,10 @@
         <v>4</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
@@ -4123,7 +4155,7 @@
         <v>60946970</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
@@ -4148,10 +4180,10 @@
         <v>4</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -4166,7 +4198,7 @@
         <v>49055275</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -4191,10 +4223,10 @@
         <v>3</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -4221,11 +4253,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1302BD17-1707-4C7F-940C-4D30AA430774}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="Q71" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4277,22 +4308,22 @@
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>45726.254166666666</v>
       </c>
@@ -4332,10 +4363,10 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>45728.92291666667</v>
       </c>
@@ -4375,10 +4406,10 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>45728.990277777775</v>
       </c>
@@ -4416,10 +4447,10 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>45728.993750000001</v>
       </c>
@@ -4459,7 +4490,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -4499,17 +4530,17 @@
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45729.206944444442</v>
       </c>
@@ -4517,7 +4548,7 @@
         <v>49160044</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -4542,17 +4573,17 @@
         <v>3</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>45729.822222222225</v>
       </c>
@@ -4560,7 +4591,7 @@
         <v>48798096</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -4585,17 +4616,17 @@
         <v>4</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>45729.82916666667</v>
       </c>
@@ -4603,7 +4634,7 @@
         <v>48799254</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -4628,17 +4659,17 @@
         <v>4</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>45735.731944444444</v>
       </c>
@@ -4646,7 +4677,7 @@
         <v>48496839</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -4671,17 +4702,17 @@
         <v>4</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>45735.990972222222</v>
       </c>
@@ -4714,17 +4745,17 @@
         <v>3</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>45735.991666666669</v>
       </c>
@@ -4757,17 +4788,17 @@
         <v>4</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>45735.991666666669</v>
       </c>
@@ -4800,17 +4831,17 @@
         <v>3</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>45735.992361111108</v>
       </c>
@@ -4843,17 +4874,17 @@
         <v>4</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>45735.993750000001</v>
       </c>
@@ -4886,17 +4917,17 @@
         <v>4</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>45736.072222222225</v>
       </c>
@@ -4904,7 +4935,7 @@
         <v>49027344</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -4929,17 +4960,17 @@
         <v>4</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>45736.072222222225</v>
       </c>
@@ -4947,7 +4978,7 @@
         <v>49041800</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -4972,17 +5003,17 @@
         <v>4</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>45736.073611111111</v>
       </c>
@@ -4990,7 +5021,7 @@
         <v>47793783</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -5015,17 +5046,17 @@
         <v>3</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>45736.073611111111</v>
       </c>
@@ -5033,7 +5064,7 @@
         <v>48134155</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -5058,17 +5089,17 @@
         <v>3</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>45736.809027777781</v>
       </c>
@@ -5076,7 +5107,7 @@
         <v>49075594</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -5101,17 +5132,17 @@
         <v>4</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>45736.80972222222</v>
       </c>
@@ -5119,7 +5150,7 @@
         <v>49225308</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -5149,10 +5180,10 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>45736.80972222222</v>
       </c>
@@ -5160,7 +5191,7 @@
         <v>48961116</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -5185,17 +5216,17 @@
         <v>4</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>45736.956250000003</v>
       </c>
@@ -5203,7 +5234,7 @@
         <v>49170406</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -5228,17 +5259,17 @@
         <v>1</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>45742.991666666669</v>
       </c>
@@ -5271,17 +5302,17 @@
         <v>4</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>45742.991666666669</v>
       </c>
@@ -5314,17 +5345,17 @@
         <v>3</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>45743.007638888892</v>
       </c>
@@ -5357,17 +5388,17 @@
         <v>4</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>45743.063194444447</v>
       </c>
@@ -5375,7 +5406,7 @@
         <v>49076876</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -5400,17 +5431,17 @@
         <v>3</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>45743.065972222219</v>
       </c>
@@ -5418,7 +5449,7 @@
         <v>47629894</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -5443,14 +5474,14 @@
         <v>2</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="145" x14ac:dyDescent="0.35">
@@ -5461,7 +5492,7 @@
         <v>46466673</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -5486,19 +5517,19 @@
         <v>3</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>45743.822916666664</v>
       </c>
@@ -5506,7 +5537,7 @@
         <v>48887285</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -5531,17 +5562,17 @@
         <v>3</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>45743.823611111111</v>
       </c>
@@ -5549,7 +5580,7 @@
         <v>49178229</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -5558,35 +5589,35 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>4</v>
+      </c>
+      <c r="J31" s="1">
+        <v>4</v>
+      </c>
+      <c r="K31" s="1">
+        <v>4</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="G31" s="1">
-        <v>2</v>
-      </c>
-      <c r="H31" s="1">
-        <v>2</v>
-      </c>
-      <c r="I31" s="1">
-        <v>4</v>
-      </c>
-      <c r="J31" s="1">
-        <v>4</v>
-      </c>
-      <c r="K31" s="1">
-        <v>4</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>45743.82708333333</v>
       </c>
@@ -5594,7 +5625,7 @@
         <v>48766976</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -5619,17 +5650,17 @@
         <v>4</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>45743.82708333333</v>
       </c>
@@ -5637,7 +5668,7 @@
         <v>47486643</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -5662,17 +5693,17 @@
         <v>4</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>45749.990972222222</v>
       </c>
@@ -5705,17 +5736,17 @@
         <v>3</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>45749.991666666669</v>
       </c>
@@ -5753,10 +5784,10 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>45749.99722222222</v>
       </c>
@@ -5789,17 +5820,17 @@
         <v>4</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>45750.059027777781</v>
       </c>
@@ -5807,7 +5838,7 @@
         <v>48975680</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -5832,17 +5863,17 @@
         <v>4</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>45750.05972222222</v>
       </c>
@@ -5850,7 +5881,7 @@
         <v>48510904</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -5875,17 +5906,17 @@
         <v>2</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>45750.825694444444</v>
       </c>
@@ -5893,7 +5924,7 @@
         <v>49076868</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -5918,17 +5949,17 @@
         <v>4</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>45757.050694444442</v>
       </c>
@@ -5961,17 +5992,17 @@
         <v>4</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>45757.859027777777</v>
       </c>
@@ -5979,7 +6010,7 @@
         <v>49065645</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -6004,17 +6035,17 @@
         <v>4</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>45757.861111111109</v>
       </c>
@@ -6022,7 +6053,7 @@
         <v>48894907</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -6047,17 +6078,17 @@
         <v>3</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>45785.037499999999</v>
       </c>
@@ -6090,17 +6121,17 @@
         <v>3</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>45785.866666666669</v>
       </c>
@@ -6108,7 +6139,7 @@
         <v>47664762</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -6133,17 +6164,17 @@
         <v>4</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>45785.867361111108</v>
       </c>
@@ -6151,7 +6182,7 @@
         <v>49151797</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -6176,14 +6207,14 @@
         <v>4</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -6194,7 +6225,7 @@
         <v>47436832</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -6219,19 +6250,19 @@
         <v>4</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>45799.111111111109</v>
       </c>
@@ -6239,7 +6270,7 @@
         <v>49252690</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -6264,17 +6295,17 @@
         <v>4</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>45813.040972222225</v>
       </c>
@@ -6312,7 +6343,7 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -6332,35 +6363,35 @@
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1">
+        <v>2</v>
+      </c>
+      <c r="J49" s="1">
+        <v>2</v>
+      </c>
+      <c r="K49" s="1">
+        <v>2</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="G49" s="1">
-        <v>2</v>
-      </c>
-      <c r="H49" s="1">
-        <v>2</v>
-      </c>
-      <c r="I49" s="1">
-        <v>2</v>
-      </c>
-      <c r="J49" s="1">
-        <v>2</v>
-      </c>
-      <c r="K49" s="1">
-        <v>2</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>45866.819444444445</v>
       </c>
@@ -6393,17 +6424,17 @@
         <v>4</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>45867.022916666669</v>
       </c>
@@ -6420,7 +6451,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G51" s="1">
         <v>2</v>
@@ -6443,10 +6474,10 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>45867.125694444447</v>
       </c>
@@ -6479,17 +6510,17 @@
         <v>3</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>45875.166666666664</v>
       </c>
@@ -6497,7 +6528,7 @@
         <v>48665541</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -6522,17 +6553,17 @@
         <v>4</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>45876.782638888886</v>
       </c>
@@ -6565,14 +6596,14 @@
         <v>3</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="174" x14ac:dyDescent="0.35">
@@ -6592,7 +6623,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G55" s="1">
         <v>2</v>
@@ -6610,17 +6641,17 @@
         <v>3</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>45876.831250000003</v>
       </c>
@@ -6628,7 +6659,7 @@
         <v>49004999</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -6653,17 +6684,17 @@
         <v>4</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>45876.840277777781</v>
       </c>
@@ -6671,7 +6702,7 @@
         <v>60946520</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -6696,17 +6727,17 @@
         <v>3</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>45876.990972222222</v>
       </c>
@@ -6739,17 +6770,17 @@
         <v>4</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>45881.254861111112</v>
       </c>
@@ -6757,7 +6788,7 @@
         <v>46270132</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -6782,19 +6813,19 @@
         <v>4</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>45883.774305555555</v>
       </c>
@@ -6832,10 +6863,10 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>45883.77847222222</v>
       </c>
@@ -6868,17 +6899,17 @@
         <v>3</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>45883.870138888888</v>
       </c>
@@ -6886,7 +6917,7 @@
         <v>49215493</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
@@ -6911,14 +6942,14 @@
         <v>4</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.35">
@@ -6929,7 +6960,7 @@
         <v>60884495</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -6954,19 +6985,19 @@
         <v>3</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O63" s="1"/>
       <c r="P63" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>45883.911111111112</v>
       </c>
@@ -6974,7 +7005,7 @@
         <v>60764953</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -6999,17 +7030,17 @@
         <v>2</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>45890.861805555556</v>
       </c>
@@ -7017,7 +7048,7 @@
         <v>60775645</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
@@ -7047,10 +7078,10 @@
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>45893.276388888888</v>
       </c>
@@ -7058,7 +7089,7 @@
         <v>12345678</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -7067,35 +7098,35 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="G66" s="1">
-        <v>1</v>
-      </c>
-      <c r="H66" s="1">
-        <v>1</v>
-      </c>
-      <c r="I66" s="1">
-        <v>1</v>
-      </c>
-      <c r="J66" s="1">
-        <v>1</v>
-      </c>
-      <c r="K66" s="1">
-        <v>1</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>45896.156944444447</v>
       </c>
@@ -7103,7 +7134,7 @@
         <v>49247883</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
@@ -7128,17 +7159,17 @@
         <v>3</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>45896.156944444447</v>
       </c>
@@ -7146,7 +7177,7 @@
         <v>49247875</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
@@ -7171,17 +7202,17 @@
         <v>2</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>45896.157638888886</v>
       </c>
@@ -7189,7 +7220,7 @@
         <v>49139819</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
@@ -7214,17 +7245,17 @@
         <v>2</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>45897.854166666664</v>
       </c>
@@ -7232,7 +7263,7 @@
         <v>48170771</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
@@ -7257,17 +7288,17 @@
         <v>3</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>45904.861805555556</v>
       </c>
@@ -7275,7 +7306,7 @@
         <v>47502185</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
@@ -7284,35 +7315,35 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G71" s="1">
+        <v>2</v>
+      </c>
+      <c r="H71" s="1">
+        <v>2</v>
+      </c>
+      <c r="I71" s="1">
+        <v>4</v>
+      </c>
+      <c r="J71" s="1">
+        <v>4</v>
+      </c>
+      <c r="K71" s="1">
+        <v>4</v>
+      </c>
+      <c r="L71" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="G71" s="1">
-        <v>2</v>
-      </c>
-      <c r="H71" s="1">
-        <v>2</v>
-      </c>
-      <c r="I71" s="1">
-        <v>4</v>
-      </c>
-      <c r="J71" s="1">
-        <v>4</v>
-      </c>
-      <c r="K71" s="1">
-        <v>4</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>45945.120138888888</v>
       </c>
@@ -7320,7 +7351,7 @@
         <v>60946970</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
@@ -7345,17 +7376,17 @@
         <v>4</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>45945.12222222222</v>
       </c>
@@ -7363,7 +7394,7 @@
         <v>49055275</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -7388,24 +7419,17 @@
         <v>3</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q73" xr:uid="{1302BD17-1707-4C7F-940C-4D30AA430774}">
-    <filterColumn colId="15">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -7427,7 +7451,7 @@
   <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7479,19 +7503,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -7529,7 +7553,7 @@
         <v>15</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -7567,7 +7591,7 @@
         <v>17</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -7602,7 +7626,7 @@
         <v>4</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -7640,7 +7664,7 @@
         <v>19</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -7675,10 +7699,10 @@
         <v>3</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -7689,7 +7713,7 @@
         <v>49160044</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -7713,10 +7737,10 @@
         <v>3</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
@@ -7727,7 +7751,7 @@
         <v>48798096</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -7751,10 +7775,10 @@
         <v>4</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -7765,7 +7789,7 @@
         <v>48799254</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -7789,13 +7813,13 @@
         <v>4</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -7806,7 +7830,7 @@
         <v>48496839</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -7830,13 +7854,13 @@
         <v>4</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -7871,10 +7895,10 @@
         <v>3</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -7909,10 +7933,10 @@
         <v>4</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
@@ -7947,10 +7971,10 @@
         <v>3</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
@@ -7985,13 +8009,13 @@
         <v>4</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
@@ -8026,10 +8050,10 @@
         <v>4</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -8040,7 +8064,7 @@
         <v>49027344</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -8064,10 +8088,10 @@
         <v>4</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -8078,7 +8102,7 @@
         <v>49041800</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -8102,10 +8126,10 @@
         <v>4</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -8116,7 +8140,7 @@
         <v>47793783</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -8140,10 +8164,10 @@
         <v>3</v>
       </c>
       <c r="L18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -8154,7 +8178,7 @@
         <v>48134155</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -8178,10 +8202,10 @@
         <v>3</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -8192,7 +8216,7 @@
         <v>49075594</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -8216,10 +8240,10 @@
         <v>4</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -8230,7 +8254,7 @@
         <v>49225308</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -8254,7 +8278,7 @@
         <v>4</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -8265,7 +8289,7 @@
         <v>48961116</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -8289,10 +8313,10 @@
         <v>4</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -8303,7 +8327,7 @@
         <v>49170406</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -8327,10 +8351,10 @@
         <v>1</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -8365,10 +8389,10 @@
         <v>4</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -8403,7 +8427,7 @@
         <v>3</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -8438,13 +8462,13 @@
         <v>4</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -8455,7 +8479,7 @@
         <v>49076876</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -8479,7 +8503,7 @@
         <v>3</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -8490,7 +8514,7 @@
         <v>47629894</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -8514,13 +8538,13 @@
         <v>2</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -8531,7 +8555,7 @@
         <v>46466673</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -8555,10 +8579,10 @@
         <v>3</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -8569,7 +8593,7 @@
         <v>48887285</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -8593,10 +8617,10 @@
         <v>3</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -8607,7 +8631,7 @@
         <v>49178229</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -8616,7 +8640,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G31" s="1">
         <v>2</v>
@@ -8634,10 +8658,10 @@
         <v>4</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -8648,7 +8672,7 @@
         <v>48766976</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -8672,10 +8696,10 @@
         <v>4</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -8686,7 +8710,7 @@
         <v>47486643</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -8710,10 +8734,10 @@
         <v>4</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -8748,7 +8772,7 @@
         <v>3</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -8783,7 +8807,7 @@
         <v>4</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -8818,10 +8842,10 @@
         <v>4</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -8832,7 +8856,7 @@
         <v>48975680</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -8856,10 +8880,10 @@
         <v>4</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -8870,7 +8894,7 @@
         <v>48510904</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -8894,10 +8918,10 @@
         <v>2</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -8908,7 +8932,7 @@
         <v>49076868</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -8932,10 +8956,10 @@
         <v>4</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -8970,10 +8994,10 @@
         <v>4</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -8984,7 +9008,7 @@
         <v>49065645</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -9008,7 +9032,7 @@
         <v>4</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
@@ -9019,7 +9043,7 @@
         <v>48894907</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -9043,13 +9067,13 @@
         <v>3</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -9084,7 +9108,7 @@
         <v>3</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -9095,7 +9119,7 @@
         <v>47664762</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -9119,10 +9143,10 @@
         <v>4</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -9133,7 +9157,7 @@
         <v>49151797</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -9157,13 +9181,13 @@
         <v>4</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -9174,7 +9198,7 @@
         <v>47436832</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -9198,10 +9222,10 @@
         <v>4</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -9212,7 +9236,7 @@
         <v>49252690</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -9236,13 +9260,13 @@
         <v>4</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -9277,7 +9301,7 @@
         <v>4</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -9297,7 +9321,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G49" s="1">
         <v>2</v>
@@ -9315,7 +9339,7 @@
         <v>2</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
@@ -9350,10 +9374,10 @@
         <v>4</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
@@ -9373,7 +9397,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G51" s="1">
         <v>2</v>
@@ -9391,7 +9415,7 @@
         <v>2</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
@@ -9426,10 +9450,10 @@
         <v>3</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
@@ -9440,7 +9464,7 @@
         <v>48665541</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -9464,10 +9488,10 @@
         <v>4</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.35">
@@ -9502,10 +9526,10 @@
         <v>3</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.35">
@@ -9525,7 +9549,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G55" s="1">
         <v>2</v>
@@ -9543,10 +9567,10 @@
         <v>3</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.35">
@@ -9557,7 +9581,7 @@
         <v>49004999</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -9581,10 +9605,10 @@
         <v>4</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
@@ -9595,7 +9619,7 @@
         <v>60946520</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -9619,10 +9643,10 @@
         <v>3</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.35">
@@ -9657,7 +9681,7 @@
         <v>4</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.35">
@@ -9668,7 +9692,7 @@
         <v>46270132</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -9692,7 +9716,7 @@
         <v>4</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.35">
@@ -9727,7 +9751,7 @@
         <v>4</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.35">
@@ -9762,10 +9786,10 @@
         <v>3</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.35">
@@ -9776,7 +9800,7 @@
         <v>49215493</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
@@ -9800,13 +9824,13 @@
         <v>4</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.35">
@@ -9817,7 +9841,7 @@
         <v>60884495</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -9841,10 +9865,10 @@
         <v>3</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.35">
@@ -9855,7 +9879,7 @@
         <v>60764953</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -9879,10 +9903,10 @@
         <v>2</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.35">
@@ -9893,7 +9917,7 @@
         <v>60775645</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
@@ -9917,7 +9941,7 @@
         <v>4</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.35">
@@ -9928,7 +9952,7 @@
         <v>12345678</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -9937,7 +9961,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G66" s="1">
         <v>1</v>
@@ -9955,10 +9979,10 @@
         <v>1</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.35">
@@ -9969,7 +9993,7 @@
         <v>49247883</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
@@ -9993,10 +10017,10 @@
         <v>3</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.35">
@@ -10007,7 +10031,7 @@
         <v>49247875</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
@@ -10031,10 +10055,10 @@
         <v>2</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.35">
@@ -10045,7 +10069,7 @@
         <v>49139819</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
@@ -10069,10 +10093,10 @@
         <v>2</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.35">
@@ -10083,7 +10107,7 @@
         <v>48170771</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
@@ -10107,7 +10131,7 @@
         <v>3</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.35">
@@ -10118,7 +10142,7 @@
         <v>47502185</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
@@ -10127,7 +10151,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G71" s="1">
         <v>2</v>
@@ -10145,7 +10169,7 @@
         <v>4</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.35">
@@ -10156,7 +10180,7 @@
         <v>60946970</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
@@ -10180,10 +10204,10 @@
         <v>4</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.35">
@@ -10194,7 +10218,7 @@
         <v>49055275</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -10218,10 +10242,10 @@
         <v>3</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -10245,8 +10269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBDD344-459F-4F02-9F99-9DFE024CE593}">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView topLeftCell="G47" workbookViewId="0">
-      <selection activeCell="L70" sqref="L70"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10296,16 +10320,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -10343,7 +10367,7 @@
         <v>15</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -10381,7 +10405,7 @@
         <v>17</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -10416,7 +10440,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -10454,7 +10478,7 @@
         <v>19</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -10489,10 +10513,10 @@
         <v>3</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -10503,7 +10527,7 @@
         <v>49160044</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -10527,10 +10551,10 @@
         <v>3</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
@@ -10541,7 +10565,7 @@
         <v>48798096</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -10565,10 +10589,10 @@
         <v>4</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
@@ -10579,7 +10603,7 @@
         <v>48799254</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -10603,10 +10627,10 @@
         <v>4</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
@@ -10617,7 +10641,7 @@
         <v>48496839</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -10641,13 +10665,13 @@
         <v>4</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -10682,10 +10706,10 @@
         <v>3</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -10720,10 +10744,10 @@
         <v>4</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
@@ -10758,10 +10782,10 @@
         <v>3</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -10796,10 +10820,10 @@
         <v>4</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
@@ -10834,10 +10858,10 @@
         <v>4</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
@@ -10848,7 +10872,7 @@
         <v>49027344</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -10872,10 +10896,10 @@
         <v>4</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
@@ -10886,7 +10910,7 @@
         <v>49041800</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -10910,10 +10934,10 @@
         <v>4</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
@@ -10924,7 +10948,7 @@
         <v>47793783</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -10948,10 +10972,10 @@
         <v>3</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
@@ -10962,7 +10986,7 @@
         <v>48134155</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -10986,10 +11010,10 @@
         <v>3</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
@@ -11000,7 +11024,7 @@
         <v>49075594</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -11024,10 +11048,10 @@
         <v>4</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
@@ -11038,7 +11062,7 @@
         <v>49225308</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -11062,7 +11086,7 @@
         <v>4</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
@@ -11073,7 +11097,7 @@
         <v>48961116</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -11097,10 +11121,10 @@
         <v>4</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
@@ -11111,7 +11135,7 @@
         <v>49170406</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -11135,10 +11159,10 @@
         <v>1</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
@@ -11173,10 +11197,10 @@
         <v>4</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
@@ -11211,7 +11235,7 @@
         <v>3</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
@@ -11246,13 +11270,13 @@
         <v>4</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
@@ -11263,7 +11287,7 @@
         <v>49076876</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -11287,7 +11311,7 @@
         <v>3</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
@@ -11298,7 +11322,7 @@
         <v>47629894</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -11322,10 +11346,10 @@
         <v>2</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
@@ -11336,7 +11360,7 @@
         <v>46466673</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -11360,10 +11384,10 @@
         <v>3</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
@@ -11374,7 +11398,7 @@
         <v>48887285</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -11398,10 +11422,10 @@
         <v>3</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
@@ -11412,7 +11436,7 @@
         <v>49178229</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -11421,7 +11445,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G31" s="1">
         <v>2</v>
@@ -11439,10 +11463,10 @@
         <v>4</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
@@ -11453,7 +11477,7 @@
         <v>48766976</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -11477,10 +11501,10 @@
         <v>4</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
@@ -11491,7 +11515,7 @@
         <v>47486643</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -11515,10 +11539,10 @@
         <v>4</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
@@ -11553,7 +11577,7 @@
         <v>3</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
@@ -11588,7 +11612,7 @@
         <v>4</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
@@ -11623,10 +11647,10 @@
         <v>4</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
@@ -11637,7 +11661,7 @@
         <v>48975680</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -11661,10 +11685,10 @@
         <v>4</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
@@ -11675,7 +11699,7 @@
         <v>48510904</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -11699,13 +11723,13 @@
         <v>2</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
@@ -11716,7 +11740,7 @@
         <v>49076868</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -11740,10 +11764,10 @@
         <v>4</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
@@ -11778,10 +11802,10 @@
         <v>4</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
@@ -11792,7 +11816,7 @@
         <v>49065645</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -11816,7 +11840,7 @@
         <v>4</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
@@ -11827,7 +11851,7 @@
         <v>48894907</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -11851,10 +11875,10 @@
         <v>3</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
@@ -11889,7 +11913,7 @@
         <v>3</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
@@ -11900,7 +11924,7 @@
         <v>47664762</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -11924,10 +11948,10 @@
         <v>4</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
@@ -11938,7 +11962,7 @@
         <v>49151797</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -11962,10 +11986,10 @@
         <v>4</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
@@ -11976,7 +12000,7 @@
         <v>47436832</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -12000,10 +12024,10 @@
         <v>4</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
@@ -12014,7 +12038,7 @@
         <v>49252690</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -12038,10 +12062,10 @@
         <v>4</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
@@ -12076,7 +12100,7 @@
         <v>4</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
@@ -12096,7 +12120,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G49" s="1">
         <v>2</v>
@@ -12114,7 +12138,7 @@
         <v>2</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
@@ -12149,10 +12173,10 @@
         <v>4</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
@@ -12172,7 +12196,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G51" s="1">
         <v>2</v>
@@ -12190,7 +12214,7 @@
         <v>2</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
@@ -12225,13 +12249,13 @@
         <v>3</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
@@ -12242,7 +12266,7 @@
         <v>48665541</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -12266,10 +12290,10 @@
         <v>4</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
@@ -12304,10 +12328,10 @@
         <v>3</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
@@ -12327,7 +12351,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G55" s="1">
         <v>2</v>
@@ -12345,10 +12369,10 @@
         <v>3</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
@@ -12359,7 +12383,7 @@
         <v>49004999</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -12383,10 +12407,10 @@
         <v>4</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
@@ -12397,7 +12421,7 @@
         <v>60946520</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -12421,10 +12445,10 @@
         <v>3</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
@@ -12459,7 +12483,7 @@
         <v>4</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
@@ -12470,7 +12494,7 @@
         <v>46270132</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -12494,7 +12518,7 @@
         <v>4</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
@@ -12529,7 +12553,7 @@
         <v>4</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
@@ -12564,10 +12588,10 @@
         <v>3</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.35">
@@ -12578,7 +12602,7 @@
         <v>49215493</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
@@ -12602,10 +12626,10 @@
         <v>4</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.35">
@@ -12616,7 +12640,7 @@
         <v>60884495</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -12640,10 +12664,10 @@
         <v>3</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
@@ -12654,7 +12678,7 @@
         <v>60764953</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -12678,10 +12702,10 @@
         <v>2</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
@@ -12692,7 +12716,7 @@
         <v>60775645</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
@@ -12716,7 +12740,7 @@
         <v>4</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.35">
@@ -12727,7 +12751,7 @@
         <v>12345678</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -12736,7 +12760,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G66" s="1">
         <v>1</v>
@@ -12754,10 +12778,10 @@
         <v>1</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
@@ -12768,7 +12792,7 @@
         <v>49247883</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
@@ -12792,10 +12816,10 @@
         <v>3</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
@@ -12806,7 +12830,7 @@
         <v>49247875</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
@@ -12830,10 +12854,10 @@
         <v>2</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
@@ -12844,7 +12868,7 @@
         <v>49139819</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
@@ -12868,10 +12892,10 @@
         <v>2</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
@@ -12882,7 +12906,7 @@
         <v>48170771</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
@@ -12906,7 +12930,7 @@
         <v>3</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
@@ -12917,7 +12941,7 @@
         <v>47502185</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
@@ -12926,7 +12950,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G71" s="1">
         <v>2</v>
@@ -12944,7 +12968,7 @@
         <v>4</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
@@ -12955,7 +12979,7 @@
         <v>60946970</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
@@ -12979,10 +13003,10 @@
         <v>4</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
@@ -12993,7 +13017,7 @@
         <v>49055275</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -13017,10 +13041,10 @@
         <v>3</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -13045,7 +13069,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13059,62 +13083,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" t="s">
         <v>157</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>158</v>
-      </c>
-      <c r="D1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
         <v>149</v>
       </c>
-      <c r="C2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>152</v>
-      </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -13122,36 +13146,36 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/entry_survey_cleaned.xlsx
+++ b/entry_survey_cleaned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phamn\Documents\Project\Rebound Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4919DDB1-DF50-426B-A8F4-83E4385C4B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5867FBDF-3E91-46FE-8D5E-80A3950CB8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{1F6D650E-BEAC-4ADD-981F-43E816AAB90C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{1F6D650E-BEAC-4ADD-981F-43E816AAB90C}"/>
   </bookViews>
   <sheets>
     <sheet name="Expectation Theme" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="198">
   <si>
     <t>Recorded Date</t>
   </si>
@@ -357,9 +357,6 @@
     <t xml:space="preserve">I would like to manage time better and have a different outcome. </t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>I want to join the Rebound program because I do not have any prior background or foundational knowledge in computer science or IT. As Iâ€šÃ„Ã´m beginning my studies in this field, I hope this course will help me build a solid foundation and strengthen my understanding so that I can keep up with the pace of my main program.
 In addition, I believe that many other students who choose this course may come from similar non-technical backgrounds. I really look forward to learning and growing together with them, exchanging ideas, and supporting each other throughout this journey.</t>
   </si>
@@ -652,6 +649,16 @@
   </si>
   <si>
     <t>To Extra Practice myself and to clear some problems that I faced.</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>I was falling behind with the content, these rebound sessions fairly helped with the content, I would recommend this to Otherss.</t>
+  </si>
+  <si>
+    <t>I want to join the Rebound program because I do not have any prior background or foundational knowledge in computer science or IT. As Iâ€šÃ„Ã´m beginning my studies in this field, I hope this course will help me build a solid foundation and strengthen my understanding so that I can keep up with the pace of my main program.
+In addition, I believe that many Others students who choose this course may come from similar non-technical backgrounds. I really look forward to learning and growing together with them, exchanging ideas, and supporting each Others throughout this journey.</t>
   </si>
 </sst>
 </file>
@@ -1040,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9174D7-FE40-4E64-8EE3-13352E1607F3}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="C26" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1092,19 +1099,19 @@
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -1143,7 +1150,7 @@
         <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -1186,11 +1193,11 @@
         <v>16</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1233,7 +1240,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
@@ -1272,11 +1279,11 @@
         <v>18</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1318,7 +1325,7 @@
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1361,7 +1368,7 @@
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1403,7 +1410,7 @@
         <v>25</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1446,7 +1453,7 @@
         <v>27</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1486,13 +1493,13 @@
         <v>4</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1538,7 +1545,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -1577,12 +1584,12 @@
         <v>33</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q12" s="1"/>
     </row>
@@ -1622,7 +1629,7 @@
         <v>35</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1665,7 +1672,7 @@
         <v>37</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1708,7 +1715,7 @@
         <v>39</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1751,7 +1758,7 @@
         <v>41</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1794,12 +1801,12 @@
         <v>43</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q17" s="1"/>
     </row>
@@ -1839,7 +1846,7 @@
         <v>45</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -1882,7 +1889,7 @@
         <v>48</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1925,7 +1932,7 @@
         <v>50</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -1970,7 +1977,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -2010,7 +2017,7 @@
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2054,7 +2061,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -2095,7 +2102,7 @@
         <v>57</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2138,11 +2145,11 @@
         <v>59</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -2183,14 +2190,14 @@
         <v>60</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q26" s="1"/>
     </row>
@@ -2230,7 +2237,7 @@
         <v>62</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -2270,13 +2277,13 @@
         <v>2</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q28" s="1"/>
     </row>
@@ -2313,17 +2320,17 @@
         <v>3</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q29" s="1"/>
     </row>
@@ -2367,7 +2374,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -2408,7 +2415,7 @@
         <v>70</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -2451,7 +2458,7 @@
         <v>72</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -2491,13 +2498,13 @@
         <v>4</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -2539,7 +2546,7 @@
         <v>76</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -2584,7 +2591,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -2627,7 +2634,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -2666,7 +2673,7 @@
         <v>79</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -2709,10 +2716,10 @@
         <v>81</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -2754,7 +2761,7 @@
         <v>83</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -2797,7 +2804,7 @@
         <v>85</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -2841,7 +2848,7 @@
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2884,7 +2891,7 @@
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -2929,7 +2936,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q43" s="1"/>
     </row>
@@ -2966,11 +2973,11 @@
         <v>4</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -3012,7 +3019,7 @@
         <v>93</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -3056,7 +3063,7 @@
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -3095,15 +3102,15 @@
         <v>4</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q47" s="1"/>
     </row>
@@ -3145,7 +3152,7 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -3188,7 +3195,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -3226,17 +3233,17 @@
         <v>4</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q50" s="1"/>
     </row>
@@ -3257,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G51" s="1">
         <v>2</v>
@@ -3280,7 +3287,7 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
@@ -3316,12 +3323,12 @@
         <v>3</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -3366,7 +3373,7 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.35">
@@ -3402,10 +3409,10 @@
         <v>3</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -3429,28 +3436,28 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G55" s="1">
+        <v>2</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2</v>
+      </c>
+      <c r="I55" s="1">
+        <v>4</v>
+      </c>
+      <c r="J55" s="1">
+        <v>4</v>
+      </c>
+      <c r="K55" s="1">
+        <v>3</v>
+      </c>
+      <c r="L55" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G55" s="1">
-        <v>2</v>
-      </c>
-      <c r="H55" s="1">
-        <v>2</v>
-      </c>
-      <c r="I55" s="1">
-        <v>4</v>
-      </c>
-      <c r="J55" s="1">
-        <v>4</v>
-      </c>
-      <c r="K55" s="1">
-        <v>3</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="M55" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -3490,10 +3497,10 @@
         <v>4</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -3533,10 +3540,10 @@
         <v>3</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -3576,10 +3583,10 @@
         <v>4</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -3619,11 +3626,11 @@
         <v>4</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
@@ -3667,7 +3674,7 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
@@ -3703,10 +3710,10 @@
         <v>3</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -3746,10 +3753,10 @@
         <v>4</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -3789,11 +3796,11 @@
         <v>3</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
@@ -3832,13 +3839,13 @@
         <v>2</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q64" s="1"/>
     </row>
@@ -3880,7 +3887,7 @@
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.35">
@@ -3900,32 +3907,32 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="G66" s="1">
-        <v>1</v>
-      </c>
-      <c r="H66" s="1">
-        <v>1</v>
-      </c>
-      <c r="I66" s="1">
-        <v>1</v>
-      </c>
-      <c r="J66" s="1">
-        <v>1</v>
-      </c>
-      <c r="K66" s="1">
-        <v>1</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.35">
@@ -3961,10 +3968,10 @@
         <v>3</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -4004,10 +4011,10 @@
         <v>2</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -4047,14 +4054,14 @@
         <v>2</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -4092,10 +4099,10 @@
         <v>3</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -4119,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G71" s="1">
         <v>2</v>
@@ -4137,10 +4144,10 @@
         <v>4</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
@@ -4180,10 +4187,10 @@
         <v>4</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -4223,10 +4230,10 @@
         <v>3</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -4255,8 +4262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1302BD17-1707-4C7F-940C-4D30AA430774}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="Q71" sqref="Q1:Q1048576"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4308,19 +4315,19 @@
         <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -4363,7 +4370,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -4406,7 +4413,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -4447,7 +4454,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
@@ -4490,7 +4497,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -4530,13 +4537,13 @@
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="Q6" s="1"/>
     </row>
@@ -4577,7 +4584,7 @@
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -4623,7 +4630,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -4666,7 +4673,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -4706,7 +4713,7 @@
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -4752,7 +4759,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -4795,7 +4802,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
@@ -4838,7 +4845,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
@@ -4881,7 +4888,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
@@ -4924,7 +4931,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -4963,7 +4970,7 @@
         <v>41</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -5010,7 +5017,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -5050,7 +5057,7 @@
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -5096,7 +5103,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -5139,7 +5146,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -5180,7 +5187,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -5220,7 +5227,7 @@
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -5266,7 +5273,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -5309,7 +5316,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -5352,7 +5359,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
@@ -5395,7 +5402,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -5438,7 +5445,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -5481,7 +5488,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="145" x14ac:dyDescent="0.35">
@@ -5521,11 +5528,11 @@
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="1"/>
     </row>
@@ -5569,7 +5576,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -5614,7 +5621,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -5657,7 +5664,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="87" x14ac:dyDescent="0.35">
@@ -5697,7 +5704,7 @@
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -5740,7 +5747,7 @@
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -5784,7 +5791,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -5827,7 +5834,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -5870,7 +5877,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -5913,7 +5920,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -5954,7 +5961,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -5999,7 +6006,7 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -6042,7 +6049,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
@@ -6078,11 +6085,11 @@
         <v>3</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -6128,7 +6135,7 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -6171,7 +6178,7 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -6214,7 +6221,7 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -6254,11 +6261,11 @@
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="Q46" s="1"/>
     </row>
@@ -6299,7 +6306,7 @@
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -6343,7 +6350,7 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -6387,7 +6394,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="Q49" s="1"/>
     </row>
@@ -6424,10 +6431,10 @@
         <v>4</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -6451,7 +6458,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G51" s="1">
         <v>2</v>
@@ -6474,7 +6481,7 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
@@ -6510,10 +6517,10 @@
         <v>3</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -6560,7 +6567,7 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.35">
@@ -6596,14 +6603,14 @@
         <v>3</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="174" x14ac:dyDescent="0.35">
@@ -6623,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G55" s="1">
         <v>2</v>
@@ -6641,13 +6648,13 @@
         <v>3</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="Q55" s="1"/>
     </row>
@@ -6684,14 +6691,14 @@
         <v>4</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
@@ -6727,14 +6734,14 @@
         <v>3</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.35">
@@ -6770,14 +6777,14 @@
         <v>4</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.35">
@@ -6813,13 +6820,13 @@
         <v>4</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M59" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N59" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
@@ -6863,7 +6870,7 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="116" x14ac:dyDescent="0.35">
@@ -6899,14 +6906,14 @@
         <v>3</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.35">
@@ -6942,14 +6949,14 @@
         <v>4</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.35">
@@ -6985,15 +6992,15 @@
         <v>3</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O63" s="1"/>
       <c r="P63" s="1" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="Q63" s="1"/>
     </row>
@@ -7030,14 +7037,14 @@
         <v>2</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.35">
@@ -7078,7 +7085,7 @@
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.35">
@@ -7098,32 +7105,32 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="G66" s="1">
-        <v>1</v>
-      </c>
-      <c r="H66" s="1">
-        <v>1</v>
-      </c>
-      <c r="I66" s="1">
-        <v>1</v>
-      </c>
-      <c r="J66" s="1">
-        <v>1</v>
-      </c>
-      <c r="K66" s="1">
-        <v>1</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.35">
@@ -7159,14 +7166,14 @@
         <v>3</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.35">
@@ -7202,14 +7209,14 @@
         <v>2</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.35">
@@ -7245,14 +7252,14 @@
         <v>2</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.35">
@@ -7288,14 +7295,14 @@
         <v>3</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.35">
@@ -7315,32 +7322,32 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G71" s="1">
+        <v>2</v>
+      </c>
+      <c r="H71" s="1">
+        <v>2</v>
+      </c>
+      <c r="I71" s="1">
+        <v>4</v>
+      </c>
+      <c r="J71" s="1">
+        <v>4</v>
+      </c>
+      <c r="K71" s="1">
+        <v>4</v>
+      </c>
+      <c r="L71" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="G71" s="1">
-        <v>2</v>
-      </c>
-      <c r="H71" s="1">
-        <v>2</v>
-      </c>
-      <c r="I71" s="1">
-        <v>4</v>
-      </c>
-      <c r="J71" s="1">
-        <v>4</v>
-      </c>
-      <c r="K71" s="1">
-        <v>4</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.35">
@@ -7376,10 +7383,10 @@
         <v>4</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -7419,14 +7426,14 @@
         <v>3</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -7503,19 +7510,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -7553,7 +7560,7 @@
         <v>15</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -7591,7 +7598,7 @@
         <v>17</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -7626,7 +7633,7 @@
         <v>4</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -7664,7 +7671,7 @@
         <v>19</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -7702,7 +7709,7 @@
         <v>21</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -7740,7 +7747,7 @@
         <v>24</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
@@ -7778,7 +7785,7 @@
         <v>26</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -7816,10 +7823,10 @@
         <v>28</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -7857,7 +7864,7 @@
         <v>30</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>47</v>
@@ -7898,7 +7905,7 @@
         <v>32</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -7936,7 +7943,7 @@
         <v>34</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
@@ -7974,7 +7981,7 @@
         <v>36</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
@@ -8012,7 +8019,7 @@
         <v>38</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>47</v>
@@ -8053,7 +8060,7 @@
         <v>40</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -8091,7 +8098,7 @@
         <v>42</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -8129,7 +8136,7 @@
         <v>44</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -8243,7 +8250,7 @@
         <v>51</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -8278,7 +8285,7 @@
         <v>4</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -8316,7 +8323,7 @@
         <v>53</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -8354,7 +8361,7 @@
         <v>56</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -8392,7 +8399,7 @@
         <v>58</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -8427,7 +8434,7 @@
         <v>3</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -8465,7 +8472,7 @@
         <v>61</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>47</v>
@@ -8503,7 +8510,7 @@
         <v>3</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -8541,10 +8548,10 @@
         <v>64</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -8582,7 +8589,7 @@
         <v>66</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -8661,7 +8668,7 @@
         <v>71</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -8737,7 +8744,7 @@
         <v>75</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -8772,7 +8779,7 @@
         <v>3</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -8807,7 +8814,7 @@
         <v>4</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -8845,7 +8852,7 @@
         <v>78</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -8883,7 +8890,7 @@
         <v>80</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -8959,7 +8966,7 @@
         <v>84</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -9032,7 +9039,7 @@
         <v>4</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
@@ -9070,7 +9077,7 @@
         <v>89</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>47</v>
@@ -9108,7 +9115,7 @@
         <v>3</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -9146,7 +9153,7 @@
         <v>92</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -9184,7 +9191,7 @@
         <v>94</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>47</v>
@@ -9225,7 +9232,7 @@
         <v>96</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -9263,10 +9270,10 @@
         <v>98</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -9301,7 +9308,7 @@
         <v>4</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -9339,7 +9346,7 @@
         <v>2</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
@@ -9374,10 +9381,10 @@
         <v>4</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
@@ -9397,7 +9404,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G51" s="1">
         <v>2</v>
@@ -9415,7 +9422,7 @@
         <v>2</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
@@ -9450,7 +9457,7 @@
         <v>3</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>47</v>
@@ -9488,10 +9495,10 @@
         <v>4</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.35">
@@ -9526,10 +9533,10 @@
         <v>3</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.35">
@@ -9549,7 +9556,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G55" s="1">
         <v>2</v>
@@ -9567,10 +9574,10 @@
         <v>3</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.35">
@@ -9605,10 +9612,10 @@
         <v>4</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
@@ -9643,10 +9650,10 @@
         <v>3</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.35">
@@ -9681,7 +9688,7 @@
         <v>4</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.35">
@@ -9716,7 +9723,7 @@
         <v>4</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.35">
@@ -9751,7 +9758,7 @@
         <v>4</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.35">
@@ -9786,10 +9793,10 @@
         <v>3</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.35">
@@ -9824,10 +9831,10 @@
         <v>4</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>47</v>
@@ -9865,7 +9872,7 @@
         <v>3</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>47</v>
@@ -9903,7 +9910,7 @@
         <v>2</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P64" s="1" t="s">
         <v>47</v>
@@ -9941,7 +9948,7 @@
         <v>4</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.35">
@@ -9961,7 +9968,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G66" s="1">
         <v>1</v>
@@ -9979,10 +9986,10 @@
         <v>1</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.35">
@@ -10017,10 +10024,10 @@
         <v>3</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.35">
@@ -10055,10 +10062,10 @@
         <v>2</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.35">
@@ -10093,10 +10100,10 @@
         <v>2</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.35">
@@ -10131,7 +10138,7 @@
         <v>3</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.35">
@@ -10151,7 +10158,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G71" s="1">
         <v>2</v>
@@ -10169,7 +10176,7 @@
         <v>4</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.35">
@@ -10204,10 +10211,10 @@
         <v>4</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.35">
@@ -10242,10 +10249,10 @@
         <v>3</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -10320,16 +10327,16 @@
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -10367,7 +10374,7 @@
         <v>15</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -10405,7 +10412,7 @@
         <v>17</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -10440,7 +10447,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -10478,7 +10485,7 @@
         <v>19</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -10516,7 +10523,7 @@
         <v>21</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -10554,7 +10561,7 @@
         <v>24</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
@@ -10592,7 +10599,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
@@ -10630,7 +10637,7 @@
         <v>28</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
@@ -10668,10 +10675,10 @@
         <v>30</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -10709,7 +10716,7 @@
         <v>32</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -10747,7 +10754,7 @@
         <v>34</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
@@ -10785,7 +10792,7 @@
         <v>36</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -10823,7 +10830,7 @@
         <v>38</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
@@ -10861,7 +10868,7 @@
         <v>40</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
@@ -10899,7 +10906,7 @@
         <v>42</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
@@ -10937,7 +10944,7 @@
         <v>44</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
@@ -10975,7 +10982,7 @@
         <v>46</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
@@ -11013,7 +11020,7 @@
         <v>49</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
@@ -11051,7 +11058,7 @@
         <v>51</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
@@ -11086,7 +11093,7 @@
         <v>4</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
@@ -11124,7 +11131,7 @@
         <v>53</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
@@ -11162,7 +11169,7 @@
         <v>56</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
@@ -11200,7 +11207,7 @@
         <v>58</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
@@ -11235,7 +11242,7 @@
         <v>3</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
@@ -11273,10 +11280,10 @@
         <v>61</v>
       </c>
       <c r="M26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
@@ -11311,7 +11318,7 @@
         <v>3</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
@@ -11349,7 +11356,7 @@
         <v>64</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
@@ -11387,7 +11394,7 @@
         <v>66</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
@@ -11425,7 +11432,7 @@
         <v>68</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
@@ -11466,7 +11473,7 @@
         <v>71</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
@@ -11504,7 +11511,7 @@
         <v>73</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
@@ -11542,7 +11549,7 @@
         <v>75</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
@@ -11577,7 +11584,7 @@
         <v>3</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
@@ -11612,7 +11619,7 @@
         <v>4</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
@@ -11650,7 +11657,7 @@
         <v>78</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
@@ -11688,7 +11695,7 @@
         <v>80</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
@@ -11726,10 +11733,10 @@
         <v>82</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
@@ -11767,7 +11774,7 @@
         <v>84</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
@@ -11805,7 +11812,7 @@
         <v>86</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
@@ -11840,7 +11847,7 @@
         <v>4</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
@@ -11878,7 +11885,7 @@
         <v>89</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
@@ -11913,7 +11920,7 @@
         <v>3</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
@@ -11951,7 +11958,7 @@
         <v>92</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
@@ -11989,7 +11996,7 @@
         <v>94</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
@@ -12027,7 +12034,7 @@
         <v>96</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
@@ -12065,7 +12072,7 @@
         <v>98</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
@@ -12100,7 +12107,7 @@
         <v>4</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
@@ -12138,7 +12145,7 @@
         <v>2</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
@@ -12173,10 +12180,10 @@
         <v>4</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
@@ -12196,7 +12203,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G51" s="1">
         <v>2</v>
@@ -12214,7 +12221,7 @@
         <v>2</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
@@ -12249,13 +12256,13 @@
         <v>3</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
@@ -12290,10 +12297,10 @@
         <v>4</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
@@ -12328,10 +12335,10 @@
         <v>3</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
@@ -12351,7 +12358,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G55" s="1">
         <v>2</v>
@@ -12369,10 +12376,10 @@
         <v>3</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
@@ -12407,10 +12414,10 @@
         <v>4</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
@@ -12445,10 +12452,10 @@
         <v>3</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
@@ -12483,7 +12490,7 @@
         <v>4</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
@@ -12518,7 +12525,7 @@
         <v>4</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.35">
@@ -12553,7 +12560,7 @@
         <v>4</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.35">
@@ -12588,10 +12595,10 @@
         <v>3</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.35">
@@ -12626,10 +12633,10 @@
         <v>4</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.35">
@@ -12664,10 +12671,10 @@
         <v>3</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
@@ -12702,10 +12709,10 @@
         <v>2</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
@@ -12740,7 +12747,7 @@
         <v>4</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.35">
@@ -12760,7 +12767,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G66" s="1">
         <v>1</v>
@@ -12778,10 +12785,10 @@
         <v>1</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
@@ -12816,10 +12823,10 @@
         <v>3</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
@@ -12854,10 +12861,10 @@
         <v>2</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
@@ -12892,10 +12899,10 @@
         <v>2</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
@@ -12930,7 +12937,7 @@
         <v>3</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
@@ -12950,7 +12957,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G71" s="1">
         <v>2</v>
@@ -12968,7 +12975,7 @@
         <v>4</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
@@ -13003,10 +13010,10 @@
         <v>4</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
@@ -13041,10 +13048,10 @@
         <v>3</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -13068,8 +13075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63338982-E92B-4E40-B804-76232AB6A0F1}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13083,62 +13090,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
         <v>154</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>155</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>156</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>157</v>
-      </c>
-      <c r="F1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" t="s">
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" t="s">
         <v>159</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>160</v>
       </c>
-      <c r="D3" t="s">
-        <v>161</v>
-      </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -13146,36 +13153,36 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
         <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" t="s">
         <v>175</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>176</v>
       </c>
-      <c r="D5" t="s">
-        <v>177</v>
-      </c>
       <c r="E5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
